--- a/Simper_OTU/stevia.pre_krusk_simper.xlsx
+++ b/Simper_OTU/stevia.pre_krusk_simper.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chian\Documents\GitHub\Stevia\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chian\Documents\GitHub\Stevia\Simper_OTU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E415A990-43B7-47D0-8A65-78588B8DF4E4}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{4FF269A7-70FA-471A-90CD-038D0E5810C1}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9780"/>
   </bookViews>
   <sheets>
     <sheet name="stevia.pre_krusk_simper" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="47">
   <si>
     <t>Comparison</t>
   </si>
@@ -154,49 +154,13 @@
     <t>Firmicutes - Clostridia - Clostridiales - Lachnospiraceae - uncultured</t>
   </si>
   <si>
+    <t>Male_Female</t>
+  </si>
+  <si>
     <t>Firmicutes - Erysipelotrichia - Erysipelotrichales - Erysipelotrichaceae - Erysipelotrichaceae_unclassified</t>
   </si>
   <si>
     <t>Firmicutes - Clostridia - Clostridiales - Lachnospiraceae - Tyzzerella</t>
-  </si>
-  <si>
-    <t>Firmicutes - Clostridia - Clostridiales - Lachnospiraceae - Acetatifactor</t>
-  </si>
-  <si>
-    <t>Firmicutes - Clostridia - Clostridiales - Lachnospiraceae - Lachnoclostridium</t>
-  </si>
-  <si>
-    <t>Firmicutes - Clostridia - Clostridiales - Clostridiales_unclassified - Clostridiales_unclassified</t>
-  </si>
-  <si>
-    <t>Firmicutes - Erysipelotrichia - Erysipelotrichales - Erysipelotrichaceae - Turicibacter</t>
-  </si>
-  <si>
-    <t>Firmicutes - Clostridia - Clostridiales - Ruminococcaceae - Ruminiclostridium_6</t>
-  </si>
-  <si>
-    <t>Firmicutes - Erysipelotrichia - Erysipelotrichales - Erysipelotrichaceae - Erysipelatoclostridium</t>
-  </si>
-  <si>
-    <t>Tenericutes - Mollicutes - Mollicutes_RF9 - Mollicutes_RF9_fa - Mollicutes_RF9_ge</t>
-  </si>
-  <si>
-    <t>Firmicutes - Clostridia - Clostridiales - Peptostreptococcaceae - Romboutsia</t>
-  </si>
-  <si>
-    <t>Firmicutes - Clostridia - Clostridiales - Lachnospiraceae - Coprococcus_1</t>
-  </si>
-  <si>
-    <t>Male_Female</t>
-  </si>
-  <si>
-    <t>Actinobacteria - Coriobacteriia - Coriobacteriales - Coriobacteriaceae - Adlercreutzia</t>
-  </si>
-  <si>
-    <t>Firmicutes - Clostridia - Clostridiales - Lachnospiraceae - Lachnospiraceae_UCG-001</t>
-  </si>
-  <si>
-    <t>Firmicutes - Clostridia - Clostridiales - Lachnospiraceae - Roseburia</t>
   </si>
 </sst>
 </file>
@@ -1045,15 +1009,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J96"/>
+  <dimension ref="A1:J52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="6" width="40.5546875" customWidth="1"/>
+    <col min="6" max="6" width="88.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -1090,7 +1054,7 @@
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="B2" s="1">
         <v>9.7411217717648102E-2</v>
@@ -1102,10 +1066,10 @@
         <v>1.0248895805614599E-7</v>
       </c>
       <c r="E2" s="2">
-        <v>9.7364510153338493E-6</v>
+        <v>5.2269368608634402E-6</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G2" s="2">
         <v>8.7400792918334693E-5</v>
@@ -1122,7 +1086,7 @@
     </row>
     <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="B3" s="1">
         <v>7.9723019428794006E-2</v>
@@ -1134,10 +1098,10 @@
         <v>9.6882289464930092E-7</v>
       </c>
       <c r="E3" s="2">
-        <v>4.6019087495841797E-5</v>
+        <v>2.4704983813557201E-5</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="G3" s="1">
         <v>0.102175507814877</v>
@@ -1154,7 +1118,7 @@
     </row>
     <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="B4" s="1">
         <v>5.5812944314101998E-2</v>
@@ -1165,11 +1129,11 @@
       <c r="D4" s="2">
         <v>4.4647893140438001E-6</v>
       </c>
-      <c r="E4" s="1">
-        <v>1.4138499494472E-4</v>
+      <c r="E4" s="2">
+        <v>7.5901418338744604E-5</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="G4" s="1">
         <v>2.2905063731741199E-2</v>
@@ -1186,7 +1150,7 @@
     </row>
     <row r="5" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="B5" s="1">
         <v>5.8531340301636002E-2</v>
@@ -1198,10 +1162,10 @@
         <v>9.2091618810739205E-6</v>
       </c>
       <c r="E5" s="1">
-        <v>2.18717594675506E-4</v>
+        <v>1.17416813983692E-4</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="G5" s="1">
         <v>1.44357981136426E-2</v>
@@ -1218,7 +1182,7 @@
     </row>
     <row r="6" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="B6" s="1">
         <v>7.0617543283187006E-2</v>
@@ -1230,7 +1194,7 @@
         <v>1.1820965296399E-3</v>
       </c>
       <c r="E6" s="1">
-        <v>2.2459834063158199E-2</v>
+        <v>1.2057384602327E-2</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>25</v>
@@ -1250,34 +1214,34 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B7">
-        <v>0.111895687971747</v>
+        <v>8.4708822457392002E-2</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D7">
-        <v>0.25107119527914601</v>
+        <v>7.2448013529786595E-2</v>
       </c>
       <c r="E7">
-        <v>0.86908730085574504</v>
+        <v>0.615808115003186</v>
       </c>
       <c r="F7" t="s">
         <v>12</v>
       </c>
       <c r="G7">
-        <v>0.106934656648294</v>
+        <v>3.7260337806915303E-2</v>
       </c>
       <c r="H7">
-        <v>0.13452333759204799</v>
+        <v>2.8763811957107199E-2</v>
       </c>
       <c r="I7">
-        <v>5.7251324326945102E-2</v>
+        <v>0.115047413674704</v>
       </c>
       <c r="J7">
-        <v>0.114182810622478</v>
+        <v>0.114382311766388</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -1294,7 +1258,7 @@
         <v>9.4022044951178704E-2</v>
       </c>
       <c r="E8">
-        <v>0.86908730085574504</v>
+        <v>0.68501775607287396</v>
       </c>
       <c r="F8" t="s">
         <v>12</v>
@@ -1314,34 +1278,34 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="B9">
-        <v>5.7665078411916003E-2</v>
+        <v>8.7643708043122895E-2</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D9">
-        <v>0.40241197232897702</v>
+        <v>0.115403660275016</v>
       </c>
       <c r="E9">
-        <v>0.86908730085574504</v>
+        <v>0.73569833425322595</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="G9">
-        <v>4.5103043349720498E-2</v>
+        <v>4.9409334581240298E-2</v>
       </c>
       <c r="H9">
-        <v>4.3442502909295598E-2</v>
+        <v>0.101255393844862</v>
       </c>
       <c r="I9">
-        <v>6.5375134390694298E-2</v>
+        <v>9.87387329811866E-2</v>
       </c>
       <c r="J9">
-        <v>6.92480932760354E-2</v>
+        <v>0.112846068507289</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -1349,31 +1313,31 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>5.7566557766259997E-2</v>
+        <v>0.111895687971747</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D10">
-        <v>0.32235156556751199</v>
+        <v>0.25107119527914601</v>
       </c>
       <c r="E10">
-        <v>0.86908730085574504</v>
+        <v>0.83106473144330595</v>
       </c>
       <c r="F10" t="s">
         <v>12</v>
       </c>
       <c r="G10">
-        <v>5.8235949065372397E-2</v>
+        <v>0.106934656648294</v>
       </c>
       <c r="H10">
-        <v>0.10255892833892</v>
+        <v>0.13452333759204799</v>
       </c>
       <c r="I10">
-        <v>1.1179856159463901E-2</v>
+        <v>5.7251324326945102E-2</v>
       </c>
       <c r="J10">
-        <v>2.2560400758340399E-2</v>
+        <v>0.114182810622478</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -1381,95 +1345,95 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>5.5511169078141999E-2</v>
+        <v>5.7665078411916003E-2</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D11">
-        <v>0.24659678005975499</v>
+        <v>0.40241197232897702</v>
       </c>
       <c r="E11">
-        <v>0.86908730085574504</v>
+        <v>0.83106473144330595</v>
       </c>
       <c r="F11" t="s">
         <v>12</v>
       </c>
       <c r="G11">
-        <v>3.7591261678129401E-2</v>
+        <v>4.5103043349720498E-2</v>
       </c>
       <c r="H11">
-        <v>6.8701062520387907E-2</v>
+        <v>4.3442502909295598E-2</v>
       </c>
       <c r="I11">
-        <v>3.1228070175438601E-2</v>
+        <v>6.5375134390694298E-2</v>
       </c>
       <c r="J11">
-        <v>9.36842105263158E-2</v>
+        <v>6.92480932760354E-2</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>8.4708822457392002E-2</v>
+        <v>5.7566557766259997E-2</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D12">
-        <v>7.2448013529786595E-2</v>
+        <v>0.32235156556751199</v>
       </c>
       <c r="E12">
-        <v>0.86908730085574504</v>
+        <v>0.83106473144330595</v>
       </c>
       <c r="F12" t="s">
         <v>12</v>
       </c>
       <c r="G12">
-        <v>3.7260337806915303E-2</v>
+        <v>5.8235949065372397E-2</v>
       </c>
       <c r="H12">
-        <v>2.8763811957107199E-2</v>
+        <v>0.10255892833892</v>
       </c>
       <c r="I12">
-        <v>0.115047413674704</v>
+        <v>1.1179856159463901E-2</v>
       </c>
       <c r="J12">
-        <v>0.114382311766388</v>
+        <v>2.2560400758340399E-2</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B13">
-        <v>5.6487517933595001E-2</v>
+        <v>5.5511169078141999E-2</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D13">
-        <v>0.17089935631715</v>
+        <v>0.24659678005975499</v>
       </c>
       <c r="E13">
-        <v>0.86908730085574504</v>
+        <v>0.83106473144330595</v>
       </c>
       <c r="F13" t="s">
         <v>12</v>
       </c>
       <c r="G13">
-        <v>5.8235949065372397E-2</v>
+        <v>3.7591261678129401E-2</v>
       </c>
       <c r="H13">
-        <v>0.10255892833892</v>
+        <v>6.8701062520387907E-2</v>
       </c>
       <c r="I13">
-        <v>1.05564501699767E-2</v>
+        <v>3.1228070175438601E-2</v>
       </c>
       <c r="J13">
-        <v>3.1669350509930201E-2</v>
+        <v>9.36842105263158E-2</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -1477,31 +1441,31 @@
         <v>21</v>
       </c>
       <c r="B14">
-        <v>5.0126186988612001E-2</v>
+        <v>5.6487517933595001E-2</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D14">
-        <v>0.41421617824252599</v>
+        <v>0.17089935631715</v>
       </c>
       <c r="E14">
-        <v>0.86908730085574504</v>
+        <v>0.83106473144330595</v>
       </c>
       <c r="F14" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="G14">
-        <v>7.9279402559810197E-2</v>
+        <v>5.8235949065372397E-2</v>
       </c>
       <c r="H14">
-        <v>5.3141210822325403E-2</v>
+        <v>0.10255892833892</v>
       </c>
       <c r="I14">
-        <v>5.3212368356205797E-2</v>
+        <v>1.05564501699767E-2</v>
       </c>
       <c r="J14">
-        <v>4.20871435375186E-2</v>
+        <v>3.1669350509930201E-2</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -1509,63 +1473,63 @@
         <v>21</v>
       </c>
       <c r="B15">
-        <v>4.6306988395934001E-2</v>
+        <v>5.0126186988612001E-2</v>
       </c>
       <c r="C15" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D15">
-        <v>0.50786594138108399</v>
+        <v>0.41421617824252599</v>
       </c>
       <c r="E15">
-        <v>0.86908730085574504</v>
+        <v>0.83106473144330595</v>
       </c>
       <c r="F15" t="s">
         <v>25</v>
       </c>
       <c r="G15">
-        <v>4.9083854311632098E-2</v>
+        <v>7.9279402559810197E-2</v>
       </c>
       <c r="H15">
-        <v>5.4261152343214603E-2</v>
+        <v>5.3141210822325403E-2</v>
       </c>
       <c r="I15">
-        <v>3.1214506328020399E-2</v>
+        <v>5.3212368356205797E-2</v>
       </c>
       <c r="J15">
-        <v>4.2133094568702997E-2</v>
+        <v>4.20871435375186E-2</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.109869425162092</v>
+        <v>4.6306988395934001E-2</v>
       </c>
       <c r="C16" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D16">
-        <v>0.521452380513447</v>
+        <v>0.50786594138108399</v>
       </c>
       <c r="E16">
-        <v>0.86908730085574504</v>
+        <v>0.83106473144330595</v>
       </c>
       <c r="F16" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G16">
-        <v>0.106934656648294</v>
+        <v>4.9083854311632098E-2</v>
       </c>
       <c r="H16">
-        <v>0.13452333759204799</v>
+        <v>5.4261152343214603E-2</v>
       </c>
       <c r="I16">
-        <v>5.4607467039597402E-2</v>
+        <v>3.1214506328020399E-2</v>
       </c>
       <c r="J16">
-        <v>8.5151056841823697E-2</v>
+        <v>4.2133094568702997E-2</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -1573,31 +1537,31 @@
         <v>29</v>
       </c>
       <c r="B17">
-        <v>6.5968314657783994E-2</v>
+        <v>0.109869425162092</v>
       </c>
       <c r="C17" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D17">
-        <v>0.34249762621114799</v>
+        <v>0.521452380513447</v>
       </c>
       <c r="E17">
-        <v>0.86908730085574504</v>
+        <v>0.83106473144330595</v>
       </c>
       <c r="F17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G17">
-        <v>4.9083854311632098E-2</v>
+        <v>0.106934656648294</v>
       </c>
       <c r="H17">
-        <v>5.4261152343214603E-2</v>
+        <v>0.13452333759204799</v>
       </c>
       <c r="I17">
-        <v>7.0090647122412905E-2</v>
+        <v>5.4607467039597402E-2</v>
       </c>
       <c r="J17">
-        <v>7.5501787595181696E-2</v>
+        <v>8.5151056841823697E-2</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -1605,31 +1569,31 @@
         <v>29</v>
       </c>
       <c r="B18">
-        <v>5.6895122963346E-2</v>
+        <v>6.5968314657783994E-2</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D18">
-        <v>0.32838321424068501</v>
+        <v>0.34249762621114799</v>
       </c>
       <c r="E18">
-        <v>0.86908730085574504</v>
+        <v>0.83106473144330595</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="G18">
-        <v>7.9279402559810197E-2</v>
+        <v>4.9083854311632098E-2</v>
       </c>
       <c r="H18">
-        <v>5.3141210822325403E-2</v>
+        <v>5.4261152343214603E-2</v>
       </c>
       <c r="I18">
-        <v>5.7467764818751599E-2</v>
+        <v>7.0090647122412905E-2</v>
       </c>
       <c r="J18">
-        <v>5.22536434700063E-2</v>
+        <v>7.5501787595181696E-2</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -1637,63 +1601,63 @@
         <v>29</v>
       </c>
       <c r="B19">
-        <v>5.4191000885075002E-2</v>
+        <v>5.6895122963346E-2</v>
       </c>
       <c r="C19" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D19">
-        <v>0.37425931928022399</v>
+        <v>0.32838321424068501</v>
       </c>
       <c r="E19">
-        <v>0.86908730085574504</v>
+        <v>0.83106473144330595</v>
       </c>
       <c r="F19" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="G19">
-        <v>3.7260337806915303E-2</v>
+        <v>7.9279402559810197E-2</v>
       </c>
       <c r="H19">
-        <v>2.8763811957107199E-2</v>
+        <v>5.3141210822325403E-2</v>
       </c>
       <c r="I19">
-        <v>7.3416467665020399E-2</v>
+        <v>5.7467764818751599E-2</v>
       </c>
       <c r="J19">
-        <v>7.7454304713007197E-2</v>
+        <v>5.22536434700063E-2</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B20">
-        <v>8.9295001662419493E-2</v>
+        <v>5.4191000885075002E-2</v>
       </c>
       <c r="C20" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D20">
-        <v>0.29912472651780603</v>
+        <v>0.37425931928022399</v>
       </c>
       <c r="E20">
-        <v>0.86908730085574504</v>
+        <v>0.83106473144330595</v>
       </c>
       <c r="F20" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="G20">
-        <v>5.7251324326945102E-2</v>
+        <v>3.7260337806915303E-2</v>
       </c>
       <c r="H20">
-        <v>0.114182810622478</v>
+        <v>2.8763811957107199E-2</v>
       </c>
       <c r="I20">
-        <v>7.1688554931273102E-2</v>
+        <v>7.3416467665020399E-2</v>
       </c>
       <c r="J20">
-        <v>9.8947093846803599E-2</v>
+        <v>7.7454304713007197E-2</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -1701,31 +1665,31 @@
         <v>34</v>
       </c>
       <c r="B21">
-        <v>5.8346774619119003E-2</v>
+        <v>8.9295001662419493E-2</v>
       </c>
       <c r="C21" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D21">
-        <v>0.49740187779391398</v>
+        <v>0.29912472651780603</v>
       </c>
       <c r="E21">
-        <v>0.86908730085574504</v>
+        <v>0.83106473144330595</v>
       </c>
       <c r="F21" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="G21">
-        <v>5.9605047542589003E-2</v>
+        <v>5.7251324326945102E-2</v>
       </c>
       <c r="H21">
-        <v>7.4598270095143707E-2</v>
+        <v>0.114182810622478</v>
       </c>
       <c r="I21">
-        <v>3.1214506328020399E-2</v>
+        <v>7.1688554931273102E-2</v>
       </c>
       <c r="J21">
-        <v>4.2133094568702997E-2</v>
+        <v>9.8947093846803599E-2</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -1733,31 +1697,31 @@
         <v>34</v>
       </c>
       <c r="B22">
-        <v>5.7060739653857002E-2</v>
+        <v>5.8346774619119003E-2</v>
       </c>
       <c r="C22" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D22">
-        <v>0.47181356301393401</v>
+        <v>0.49740187779391398</v>
       </c>
       <c r="E22">
-        <v>0.86908730085574504</v>
+        <v>0.83106473144330595</v>
       </c>
       <c r="F22" t="s">
         <v>25</v>
       </c>
       <c r="G22">
-        <v>6.5375134390694298E-2</v>
+        <v>5.9605047542589003E-2</v>
       </c>
       <c r="H22">
-        <v>6.92480932760354E-2</v>
+        <v>7.4598270095143707E-2</v>
       </c>
       <c r="I22">
-        <v>4.5476616369853097E-2</v>
+        <v>3.1214506328020399E-2</v>
       </c>
       <c r="J22">
-        <v>4.08594230801127E-2</v>
+        <v>4.2133094568702997E-2</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -1765,63 +1729,63 @@
         <v>34</v>
       </c>
       <c r="B23">
-        <v>3.8603529172326997E-2</v>
+        <v>5.7060739653857002E-2</v>
       </c>
       <c r="C23" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D23">
-        <v>0.30937973727968399</v>
+        <v>0.47181356301393401</v>
       </c>
       <c r="E23">
-        <v>0.86908730085574504</v>
+        <v>0.83106473144330595</v>
       </c>
       <c r="F23" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="G23">
-        <v>3.7031548592754301E-2</v>
+        <v>6.5375134390694298E-2</v>
       </c>
       <c r="H23">
-        <v>3.3539435001892701E-2</v>
+        <v>6.92480932760354E-2</v>
       </c>
       <c r="I23">
-        <v>5.3212368356205797E-2</v>
+        <v>4.5476616369853097E-2</v>
       </c>
       <c r="J23">
-        <v>4.20871435375186E-2</v>
+        <v>4.08594230801127E-2</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B24">
-        <v>8.2391074460250305E-2</v>
+        <v>3.8603529172326997E-2</v>
       </c>
       <c r="C24" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D24">
-        <v>0.46451096732754399</v>
+        <v>0.30937973727968399</v>
       </c>
       <c r="E24">
-        <v>0.86908730085574504</v>
+        <v>0.83106473144330595</v>
       </c>
       <c r="F24" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="G24">
-        <v>5.7251324326945102E-2</v>
+        <v>3.7031548592754301E-2</v>
       </c>
       <c r="H24">
-        <v>0.114182810622478</v>
+        <v>3.3539435001892701E-2</v>
       </c>
       <c r="I24">
-        <v>5.4607467039597402E-2</v>
+        <v>5.3212368356205797E-2</v>
       </c>
       <c r="J24">
-        <v>8.5151056841823697E-2</v>
+        <v>4.20871435375186E-2</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
@@ -1829,31 +1793,31 @@
         <v>38</v>
       </c>
       <c r="B25">
-        <v>6.9833780365653006E-2</v>
+        <v>8.2391074460250305E-2</v>
       </c>
       <c r="C25" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D25">
-        <v>0.50058135194903297</v>
+        <v>0.46451096732754399</v>
       </c>
       <c r="E25">
-        <v>0.86908730085574504</v>
+        <v>0.83106473144330595</v>
       </c>
       <c r="F25" t="s">
         <v>28</v>
       </c>
       <c r="G25">
-        <v>8.3857900411084596E-2</v>
+        <v>5.7251324326945102E-2</v>
       </c>
       <c r="H25">
-        <v>6.3598775104669297E-2</v>
+        <v>0.114182810622478</v>
       </c>
       <c r="I25">
-        <v>7.3416467665020399E-2</v>
+        <v>5.4607467039597402E-2</v>
       </c>
       <c r="J25">
-        <v>7.7454304713007197E-2</v>
+        <v>8.5151056841823697E-2</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
@@ -1861,31 +1825,31 @@
         <v>38</v>
       </c>
       <c r="B26">
-        <v>6.3774136854520005E-2</v>
+        <v>6.9833780365653006E-2</v>
       </c>
       <c r="C26" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D26">
-        <v>0.300987648724447</v>
+        <v>0.50058135194903297</v>
       </c>
       <c r="E26">
-        <v>0.86908730085574504</v>
+        <v>0.83106473144330595</v>
       </c>
       <c r="F26" t="s">
         <v>28</v>
       </c>
       <c r="G26">
-        <v>3.1228070175438601E-2</v>
+        <v>8.3857900411084596E-2</v>
       </c>
       <c r="H26">
-        <v>9.36842105263158E-2</v>
+        <v>6.3598775104669297E-2</v>
       </c>
       <c r="I26">
-        <v>4.6869436507310298E-2</v>
+        <v>7.3416467665020399E-2</v>
       </c>
       <c r="J26">
-        <v>8.1290615696617802E-2</v>
+        <v>7.7454304713007197E-2</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
@@ -1893,63 +1857,63 @@
         <v>38</v>
       </c>
       <c r="B27">
-        <v>5.8617549647382E-2</v>
+        <v>6.3774136854520005E-2</v>
       </c>
       <c r="C27" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D27">
-        <v>0.23150692622451899</v>
+        <v>0.300987648724447</v>
       </c>
       <c r="E27">
-        <v>0.86908730085574504</v>
+        <v>0.83106473144330595</v>
       </c>
       <c r="F27" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G27">
-        <v>6.5375134390694298E-2</v>
+        <v>3.1228070175438601E-2</v>
       </c>
       <c r="H27">
-        <v>6.92480932760354E-2</v>
+        <v>9.36842105263158E-2</v>
       </c>
       <c r="I27">
-        <v>3.4597513082156098E-2</v>
+        <v>4.6869436507310298E-2</v>
       </c>
       <c r="J27">
-        <v>3.7843230483940303E-2</v>
+        <v>8.1290615696617802E-2</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B28">
-        <v>6.9824660289974999E-2</v>
+        <v>5.8617549647382E-2</v>
       </c>
       <c r="C28" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D28">
-        <v>0.490858490836656</v>
+        <v>0.23150692622451899</v>
       </c>
       <c r="E28">
-        <v>0.86908730085574504</v>
+        <v>0.83106473144330595</v>
       </c>
       <c r="F28" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G28">
-        <v>6.34219431382856E-2</v>
+        <v>6.5375134390694298E-2</v>
       </c>
       <c r="H28">
-        <v>7.4860585611632502E-2</v>
+        <v>6.92480932760354E-2</v>
       </c>
       <c r="I28">
-        <v>6.5001180401373704E-2</v>
+        <v>3.4597513082156098E-2</v>
       </c>
       <c r="J28">
-        <v>7.0604239493769594E-2</v>
+        <v>3.7843230483940303E-2</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
@@ -1957,31 +1921,31 @@
         <v>41</v>
       </c>
       <c r="B29">
-        <v>6.5643972141372006E-2</v>
+        <v>6.9824660289974999E-2</v>
       </c>
       <c r="C29" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D29">
-        <v>0.29745521444602002</v>
+        <v>0.490858490836656</v>
       </c>
       <c r="E29">
-        <v>0.86908730085574504</v>
+        <v>0.83106473144330595</v>
       </c>
       <c r="F29" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="G29">
-        <v>3.1214506328020399E-2</v>
+        <v>6.34219431382856E-2</v>
       </c>
       <c r="H29">
-        <v>4.2133094568702997E-2</v>
+        <v>7.4860585611632502E-2</v>
       </c>
       <c r="I29">
-        <v>7.0090647122412905E-2</v>
+        <v>6.5001180401373704E-2</v>
       </c>
       <c r="J29">
-        <v>7.5501787595181696E-2</v>
+        <v>7.0604239493769594E-2</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
@@ -1989,31 +1953,31 @@
         <v>41</v>
       </c>
       <c r="B30">
-        <v>4.7024051970947001E-2</v>
+        <v>6.5643972141372006E-2</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D30">
-        <v>0.36545054430002599</v>
+        <v>0.29745521444602002</v>
       </c>
       <c r="E30">
-        <v>0.86908730085574504</v>
+        <v>0.83106473144330595</v>
       </c>
       <c r="F30" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="G30">
-        <v>3.5115925203271801E-2</v>
+        <v>3.1214506328020399E-2</v>
       </c>
       <c r="H30">
-        <v>6.6184108429413094E-2</v>
+        <v>4.2133094568702997E-2</v>
       </c>
       <c r="I30">
-        <v>2.3784072688401901E-2</v>
+        <v>7.0090647122412905E-2</v>
       </c>
       <c r="J30">
-        <v>6.7271516328810996E-2</v>
+        <v>7.5501787595181696E-2</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
@@ -2021,287 +1985,287 @@
         <v>41</v>
       </c>
       <c r="B31">
-        <v>3.9378185469749E-2</v>
+        <v>4.7024051970947001E-2</v>
       </c>
       <c r="C31" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D31">
-        <v>0.42506933787988299</v>
+        <v>0.36545054430002599</v>
       </c>
       <c r="E31">
-        <v>0.86908730085574504</v>
+        <v>0.83106473144330595</v>
       </c>
       <c r="F31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G31">
-        <v>4.5476616369853097E-2</v>
+        <v>3.5115925203271801E-2</v>
       </c>
       <c r="H31">
-        <v>4.08594230801127E-2</v>
+        <v>6.6184108429413094E-2</v>
       </c>
       <c r="I31">
-        <v>3.4597513082156098E-2</v>
+        <v>2.3784072688401901E-2</v>
       </c>
       <c r="J31">
-        <v>3.7843230483940303E-2</v>
+        <v>6.7271516328810996E-2</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="B32">
-        <v>0.111895687971747</v>
+        <v>3.9378185469749E-2</v>
       </c>
       <c r="C32" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D32">
-        <v>0.25107119527914601</v>
+        <v>0.42506933787988299</v>
       </c>
       <c r="E32">
-        <v>0.86908730085574504</v>
+        <v>0.83106473144330595</v>
       </c>
       <c r="F32" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G32">
-        <v>0.106934656648294</v>
+        <v>4.5476616369853097E-2</v>
       </c>
       <c r="H32">
-        <v>0.13452333759204799</v>
+        <v>4.08594230801127E-2</v>
       </c>
       <c r="I32">
-        <v>5.7251324326945102E-2</v>
+        <v>3.4597513082156098E-2</v>
       </c>
       <c r="J32">
-        <v>0.114182810622478</v>
+        <v>3.7843230483940303E-2</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="B33">
-        <v>5.7676637038873997E-2</v>
+        <v>4.477049342877E-2</v>
       </c>
       <c r="C33" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D33">
-        <v>9.4022044951178704E-2</v>
+        <v>0.46115474627131098</v>
       </c>
       <c r="E33">
-        <v>0.86908730085574504</v>
+        <v>0.83106473144330595</v>
       </c>
       <c r="F33" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G33">
-        <v>3.7260337806915303E-2</v>
+        <v>5.3978859646563203E-2</v>
       </c>
       <c r="H33">
-        <v>2.8763811957107199E-2</v>
+        <v>9.2478956576392199E-2</v>
       </c>
       <c r="I33">
-        <v>8.3857900411084596E-2</v>
+        <v>6.2002574488300901E-3</v>
       </c>
       <c r="J33">
-        <v>6.3598775104669297E-2</v>
+        <v>1.1072149522965299E-2</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B34">
-        <v>5.7665078411916003E-2</v>
+        <v>6.4268118657585999E-2</v>
       </c>
       <c r="C34" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D34">
-        <v>0.40241197232897702</v>
+        <v>0.56084807165530504</v>
       </c>
       <c r="E34">
-        <v>0.86908730085574504</v>
+        <v>0.84555429247615699</v>
       </c>
       <c r="F34" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="G34">
-        <v>4.5103043349720498E-2</v>
+        <v>4.8681388014756299E-2</v>
       </c>
       <c r="H34">
-        <v>4.3442502909295598E-2</v>
+        <v>6.4397563665187105E-2</v>
       </c>
       <c r="I34">
-        <v>6.5375134390694298E-2</v>
+        <v>6.34219431382856E-2</v>
       </c>
       <c r="J34">
-        <v>6.92480932760354E-2</v>
+        <v>7.4860585611632502E-2</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="B35">
-        <v>5.7566557766259997E-2</v>
+        <v>9.3487058211880594E-2</v>
       </c>
       <c r="C35" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D35">
-        <v>0.32235156556751199</v>
+        <v>0.56370286165077199</v>
       </c>
       <c r="E35">
-        <v>0.86908730085574504</v>
+        <v>0.84555429247615699</v>
       </c>
       <c r="F35" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="G35">
-        <v>5.8235949065372397E-2</v>
+        <v>0.115047413674704</v>
       </c>
       <c r="H35">
-        <v>0.10255892833892</v>
+        <v>0.114382311766388</v>
       </c>
       <c r="I35">
-        <v>1.1179856159463901E-2</v>
+        <v>7.3416467665020399E-2</v>
       </c>
       <c r="J35">
-        <v>2.2560400758340399E-2</v>
+        <v>7.7454304713007197E-2</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="B36">
-        <v>5.5511169078141999E-2</v>
+        <v>8.0624663390453002E-2</v>
       </c>
       <c r="C36" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D36">
-        <v>0.24659678005975499</v>
+        <v>0.616646474192173</v>
       </c>
       <c r="E36">
-        <v>0.86908730085574504</v>
+        <v>0.873582505105579</v>
       </c>
       <c r="F36" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="G36">
-        <v>3.7591261678129401E-2</v>
+        <v>7.1651829839831593E-2</v>
       </c>
       <c r="H36">
-        <v>6.8701062520387907E-2</v>
+        <v>9.7066582765898704E-2</v>
       </c>
       <c r="I36">
-        <v>3.1228070175438601E-2</v>
+        <v>6.34219431382856E-2</v>
       </c>
       <c r="J36">
-        <v>9.36842105263158E-2</v>
+        <v>7.4860585611632502E-2</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="B37">
-        <v>8.4708822457392002E-2</v>
+        <v>4.9733476775834E-2</v>
       </c>
       <c r="C37" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D37">
-        <v>7.2448013529786595E-2</v>
+        <v>0.61261356188515403</v>
       </c>
       <c r="E37">
-        <v>0.86908730085574504</v>
+        <v>0.873582505105579</v>
       </c>
       <c r="F37" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="G37">
-        <v>3.7260337806915303E-2</v>
+        <v>3.6595394020724099E-2</v>
       </c>
       <c r="H37">
-        <v>2.8763811957107199E-2</v>
+        <v>8.2836971356660502E-2</v>
       </c>
       <c r="I37">
-        <v>0.115047413674704</v>
+        <v>2.3784072688401901E-2</v>
       </c>
       <c r="J37">
-        <v>0.114382311766388</v>
+        <v>6.7271516328810996E-2</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>5.6487517933595001E-2</v>
+        <v>8.2616353803224393E-2</v>
       </c>
       <c r="C38" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D38">
-        <v>0.17089935631715</v>
+        <v>0.65722567622261296</v>
       </c>
       <c r="E38">
-        <v>0.86908730085574504</v>
+        <v>0.882066039140875</v>
       </c>
       <c r="F38" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="G38">
-        <v>5.8235949065372397E-2</v>
+        <v>7.1688554931273102E-2</v>
       </c>
       <c r="H38">
-        <v>0.10255892833892</v>
+        <v>9.8947093846803599E-2</v>
       </c>
       <c r="I38">
-        <v>1.05564501699767E-2</v>
+        <v>5.4607467039597402E-2</v>
       </c>
       <c r="J38">
-        <v>3.1669350509930201E-2</v>
+        <v>8.5151056841823697E-2</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="B39">
-        <v>5.0126186988612001E-2</v>
+        <v>4.5579171986094999E-2</v>
       </c>
       <c r="C39" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D39">
-        <v>0.41421617824252599</v>
+        <v>0.65244321719153398</v>
       </c>
       <c r="E39">
-        <v>0.86908730085574504</v>
+        <v>0.882066039140875</v>
       </c>
       <c r="F39" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="G39">
-        <v>7.9279402559810197E-2</v>
+        <v>5.7003741442615604E-3</v>
       </c>
       <c r="H39">
-        <v>5.3141210822325403E-2</v>
+        <v>1.0543667727444099E-2</v>
       </c>
       <c r="I39">
-        <v>5.3212368356205797E-2</v>
+        <v>4.6869436507310298E-2</v>
       </c>
       <c r="J39">
-        <v>4.20871435375186E-2</v>
+        <v>8.1290615696617802E-2</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
@@ -2309,121 +2273,121 @@
         <v>21</v>
       </c>
       <c r="B40">
-        <v>4.6306988395934001E-2</v>
+        <v>0.108230582137558</v>
       </c>
       <c r="C40" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D40">
-        <v>0.50786594138108399</v>
+        <v>0.67546414650406195</v>
       </c>
       <c r="E40">
-        <v>0.86908730085574504</v>
+        <v>0.88329926850531204</v>
       </c>
       <c r="F40" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="G40">
-        <v>4.9083854311632098E-2</v>
+        <v>0.106934656648294</v>
       </c>
       <c r="H40">
-        <v>5.4261152343214603E-2</v>
+        <v>0.13452333759204799</v>
       </c>
       <c r="I40">
-        <v>3.1214506328020399E-2</v>
+        <v>7.1688554931273102E-2</v>
       </c>
       <c r="J40">
-        <v>4.2133094568702997E-2</v>
+        <v>9.8947093846803599E-2</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B41">
-        <v>0.109869425162092</v>
+        <v>5.4366240078609997E-2</v>
       </c>
       <c r="C41" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="D41">
-        <v>0.521452380513447</v>
+        <v>0.69569952860894901</v>
       </c>
       <c r="E41">
-        <v>0.86908730085574504</v>
+        <v>0.88701689897640901</v>
       </c>
       <c r="F41" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G41">
-        <v>0.106934656648294</v>
+        <v>3.6595394020724099E-2</v>
       </c>
       <c r="H41">
-        <v>0.13452333759204799</v>
+        <v>8.2836971356660502E-2</v>
       </c>
       <c r="I41">
-        <v>5.4607467039597402E-2</v>
+        <v>3.5115925203271801E-2</v>
       </c>
       <c r="J41">
-        <v>8.5151056841823697E-2</v>
+        <v>6.6184108429413094E-2</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B42">
-        <v>6.5968314657783994E-2</v>
+        <v>9.0412959954150496E-2</v>
       </c>
       <c r="C42" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D42">
-        <v>0.34249762621114799</v>
+        <v>0.75727774962362604</v>
       </c>
       <c r="E42">
-        <v>0.86908730085574504</v>
+        <v>0.93843641968825398</v>
       </c>
       <c r="F42" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="G42">
-        <v>4.9083854311632098E-2</v>
+        <v>8.3857900411084596E-2</v>
       </c>
       <c r="H42">
-        <v>5.4261152343214603E-2</v>
+        <v>6.3598775104669297E-2</v>
       </c>
       <c r="I42">
-        <v>7.0090647122412905E-2</v>
+        <v>0.115047413674704</v>
       </c>
       <c r="J42">
-        <v>7.5501787595181696E-2</v>
+        <v>0.114382311766388</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B43">
-        <v>5.6895122963346E-2</v>
+        <v>4.8355056690624003E-2</v>
       </c>
       <c r="C43" t="s">
         <v>24</v>
       </c>
       <c r="D43">
-        <v>0.32838321424068501</v>
+        <v>0.77282999268444397</v>
       </c>
       <c r="E43">
-        <v>0.86908730085574504</v>
+        <v>0.93843641968825398</v>
       </c>
       <c r="F43" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G43">
-        <v>7.9279402559810197E-2</v>
+        <v>5.3212368356205797E-2</v>
       </c>
       <c r="H43">
-        <v>5.3141210822325403E-2</v>
+        <v>4.20871435375186E-2</v>
       </c>
       <c r="I43">
         <v>5.7467764818751599E-2</v>
@@ -2434,86 +2398,86 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B44">
-        <v>5.4191000885075002E-2</v>
+        <v>4.0505867598194002E-2</v>
       </c>
       <c r="C44" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D44">
-        <v>0.37425931928022399</v>
+        <v>0.834114952902964</v>
       </c>
       <c r="E44">
-        <v>0.86908730085574504</v>
+        <v>0.94625549409500398</v>
       </c>
       <c r="F44" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="G44">
-        <v>3.7260337806915303E-2</v>
+        <v>4.5103043349720498E-2</v>
       </c>
       <c r="H44">
-        <v>2.8763811957107199E-2</v>
+        <v>4.3442502909295598E-2</v>
       </c>
       <c r="I44">
-        <v>7.3416467665020399E-2</v>
+        <v>4.5476616369853097E-2</v>
       </c>
       <c r="J44">
-        <v>7.7454304713007197E-2</v>
+        <v>4.08594230801127E-2</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B45">
-        <v>8.9295001662419493E-2</v>
+        <v>8.1541570247348705E-2</v>
       </c>
       <c r="C45" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D45">
-        <v>0.29912472651780603</v>
+        <v>0.83493131831912104</v>
       </c>
       <c r="E45">
-        <v>0.86908730085574504</v>
+        <v>0.94625549409500398</v>
       </c>
       <c r="F45" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="G45">
-        <v>5.7251324326945102E-2</v>
+        <v>7.1651829839831593E-2</v>
       </c>
       <c r="H45">
-        <v>0.114182810622478</v>
+        <v>9.7066582765898704E-2</v>
       </c>
       <c r="I45">
-        <v>7.1688554931273102E-2</v>
+        <v>6.5001180401373704E-2</v>
       </c>
       <c r="J45">
-        <v>9.8947093846803599E-2</v>
+        <v>7.0604239493769594E-2</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B46">
-        <v>5.8346774619119003E-2</v>
+        <v>7.1566667252703997E-2</v>
       </c>
       <c r="C46" t="s">
         <v>15</v>
       </c>
       <c r="D46">
-        <v>0.49740187779391398</v>
+        <v>0.83493131831912104</v>
       </c>
       <c r="E46">
-        <v>0.86908730085574504</v>
+        <v>0.94625549409500398</v>
       </c>
       <c r="F46" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="G46">
         <v>5.9605047542589003E-2</v>
@@ -2522,1614 +2486,206 @@
         <v>7.4598270095143707E-2</v>
       </c>
       <c r="I46">
-        <v>3.1214506328020399E-2</v>
+        <v>7.0090647122412905E-2</v>
       </c>
       <c r="J46">
-        <v>4.2133094568702997E-2</v>
+        <v>7.5501787595181696E-2</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="B47">
-        <v>5.7060739653857002E-2</v>
+        <v>6.1189514682513997E-2</v>
       </c>
       <c r="C47" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D47">
-        <v>0.47181356301393401</v>
+        <v>0.894641927640353</v>
       </c>
       <c r="E47">
-        <v>0.86908730085574504</v>
+        <v>0.96371747270428298</v>
       </c>
       <c r="F47" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="G47">
-        <v>6.5375134390694298E-2</v>
+        <v>4.9083854311632098E-2</v>
       </c>
       <c r="H47">
-        <v>6.92480932760354E-2</v>
+        <v>5.4261152343214603E-2</v>
       </c>
       <c r="I47">
-        <v>4.5476616369853097E-2</v>
+        <v>5.9605047542589003E-2</v>
       </c>
       <c r="J47">
-        <v>4.08594230801127E-2</v>
+        <v>7.4598270095143707E-2</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="B48">
-        <v>3.8603529172326997E-2</v>
+        <v>3.6844819209294E-2</v>
       </c>
       <c r="C48" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D48">
-        <v>0.30937973727968399</v>
+        <v>0.92479827248512303</v>
       </c>
       <c r="E48">
-        <v>0.86908730085574504</v>
+        <v>0.96371747270428298</v>
       </c>
       <c r="F48" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="G48">
-        <v>3.7031548592754301E-2</v>
+        <v>1.2543307184994801E-2</v>
       </c>
       <c r="H48">
-        <v>3.3539435001892701E-2</v>
+        <v>2.6595289974355799E-2</v>
       </c>
       <c r="I48">
-        <v>5.3212368356205797E-2</v>
+        <v>3.5115925203271801E-2</v>
       </c>
       <c r="J48">
-        <v>4.20871435375186E-2</v>
+        <v>6.6184108429413094E-2</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B49">
-        <v>8.2391074460250305E-2</v>
+        <v>6.6834201039650001E-2</v>
       </c>
       <c r="C49" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D49">
-        <v>0.46451096732754399</v>
+        <v>0.92592463063744801</v>
       </c>
       <c r="E49">
-        <v>0.86908730085574504</v>
+        <v>0.96371747270428298</v>
       </c>
       <c r="F49" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G49">
-        <v>5.7251324326945102E-2</v>
+        <v>4.8681388014756299E-2</v>
       </c>
       <c r="H49">
-        <v>0.114182810622478</v>
+        <v>6.4397563665187105E-2</v>
       </c>
       <c r="I49">
-        <v>5.4607467039597402E-2</v>
+        <v>6.5001180401373704E-2</v>
       </c>
       <c r="J49">
-        <v>8.5151056841823697E-2</v>
+        <v>7.0604239493769594E-2</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B50">
-        <v>6.9833780365653006E-2</v>
+        <v>6.0740612217525997E-2</v>
       </c>
       <c r="C50" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D50">
-        <v>0.50058135194903297</v>
+        <v>0.91950088846611999</v>
       </c>
       <c r="E50">
-        <v>0.86908730085574504</v>
+        <v>0.96371747270428298</v>
       </c>
       <c r="F50" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="G50">
-        <v>8.3857900411084596E-2</v>
+        <v>3.7591261678129401E-2</v>
       </c>
       <c r="H50">
-        <v>6.3598775104669297E-2</v>
+        <v>6.8701062520387907E-2</v>
       </c>
       <c r="I50">
-        <v>7.3416467665020399E-2</v>
+        <v>4.6869436507310298E-2</v>
       </c>
       <c r="J50">
-        <v>7.7454304713007197E-2</v>
+        <v>8.1290615696617802E-2</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B51">
-        <v>6.3774136854520005E-2</v>
+        <v>5.9493823877641003E-2</v>
       </c>
       <c r="C51" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D51">
-        <v>0.300987648724447</v>
+        <v>0.96107661110798004</v>
       </c>
       <c r="E51">
-        <v>0.86908730085574504</v>
+        <v>0.98029814333013998</v>
       </c>
       <c r="F51" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="G51">
-        <v>3.1228070175438601E-2</v>
+        <v>5.8235949065372397E-2</v>
       </c>
       <c r="H51">
-        <v>9.36842105263158E-2</v>
+        <v>0.10255892833892</v>
       </c>
       <c r="I51">
-        <v>4.6869436507310298E-2</v>
+        <v>1.15136478994451E-2</v>
       </c>
       <c r="J51">
-        <v>8.1290615696617802E-2</v>
+        <v>1.64114623730411E-2</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="B52">
-        <v>5.8617549647382E-2</v>
+        <v>7.5614989946633002E-2</v>
       </c>
       <c r="C52" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D52">
-        <v>0.23150692622451899</v>
+        <v>1</v>
       </c>
       <c r="E52">
-        <v>0.86908730085574504</v>
+        <v>1</v>
       </c>
       <c r="F52" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="G52">
-        <v>6.5375134390694298E-2</v>
+        <v>4.8681388014756299E-2</v>
       </c>
       <c r="H52">
-        <v>6.92480932760354E-2</v>
+        <v>6.4397563665187105E-2</v>
       </c>
       <c r="I52">
-        <v>3.4597513082156098E-2</v>
+        <v>7.1651829839831593E-2</v>
       </c>
       <c r="J52">
-        <v>3.7843230483940303E-2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>41</v>
-      </c>
-      <c r="B53">
-        <v>6.9824660289974999E-2</v>
-      </c>
-      <c r="C53" t="s">
-        <v>13</v>
-      </c>
-      <c r="D53">
-        <v>0.490858490836656</v>
-      </c>
-      <c r="E53">
-        <v>0.86908730085574504</v>
-      </c>
-      <c r="F53" t="s">
-        <v>43</v>
-      </c>
-      <c r="G53">
-        <v>6.34219431382856E-2</v>
-      </c>
-      <c r="H53">
-        <v>7.4860585611632502E-2</v>
-      </c>
-      <c r="I53">
-        <v>6.5001180401373704E-2</v>
-      </c>
-      <c r="J53">
-        <v>7.0604239493769594E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>41</v>
-      </c>
-      <c r="B54">
-        <v>6.5643972141372006E-2</v>
-      </c>
-      <c r="C54" t="s">
-        <v>15</v>
-      </c>
-      <c r="D54">
-        <v>0.29745521444602002</v>
-      </c>
-      <c r="E54">
-        <v>0.86908730085574504</v>
-      </c>
-      <c r="F54" t="s">
-        <v>25</v>
-      </c>
-      <c r="G54">
-        <v>3.1214506328020399E-2</v>
-      </c>
-      <c r="H54">
-        <v>4.2133094568702997E-2</v>
-      </c>
-      <c r="I54">
-        <v>7.0090647122412905E-2</v>
-      </c>
-      <c r="J54">
-        <v>7.5501787595181696E-2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>41</v>
-      </c>
-      <c r="B55">
-        <v>4.7024051970947001E-2</v>
-      </c>
-      <c r="C55" t="s">
-        <v>27</v>
-      </c>
-      <c r="D55">
-        <v>0.36545054430002599</v>
-      </c>
-      <c r="E55">
-        <v>0.86908730085574504</v>
-      </c>
-      <c r="F55" t="s">
-        <v>31</v>
-      </c>
-      <c r="G55">
-        <v>3.5115925203271801E-2</v>
-      </c>
-      <c r="H55">
-        <v>6.6184108429413094E-2</v>
-      </c>
-      <c r="I55">
-        <v>2.3784072688401901E-2</v>
-      </c>
-      <c r="J55">
-        <v>6.7271516328810996E-2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>41</v>
-      </c>
-      <c r="B56">
-        <v>3.9378185469749E-2</v>
-      </c>
-      <c r="C56" t="s">
-        <v>18</v>
-      </c>
-      <c r="D56">
-        <v>0.42506933787988299</v>
-      </c>
-      <c r="E56">
-        <v>0.86908730085574504</v>
-      </c>
-      <c r="F56" t="s">
-        <v>54</v>
-      </c>
-      <c r="G56">
-        <v>4.5476616369853097E-2</v>
-      </c>
-      <c r="H56">
-        <v>4.08594230801127E-2</v>
-      </c>
-      <c r="I56">
-        <v>3.4597513082156098E-2</v>
-      </c>
-      <c r="J56">
-        <v>3.7843230483940303E-2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>55</v>
-      </c>
-      <c r="B57">
-        <v>8.7643708043122895E-2</v>
-      </c>
-      <c r="C57" t="s">
-        <v>11</v>
-      </c>
-      <c r="D57">
-        <v>0.115403660275016</v>
-      </c>
-      <c r="E57">
-        <v>0.86908730085574504</v>
-      </c>
-      <c r="F57" t="s">
-        <v>25</v>
-      </c>
-      <c r="G57">
-        <v>4.9409334581240298E-2</v>
-      </c>
-      <c r="H57">
-        <v>0.101255393844862</v>
-      </c>
-      <c r="I57">
-        <v>9.87387329811866E-2</v>
-      </c>
-      <c r="J57">
-        <v>0.112846068507289</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>55</v>
-      </c>
-      <c r="B58">
-        <v>4.477049342877E-2</v>
-      </c>
-      <c r="C58" t="s">
-        <v>20</v>
-      </c>
-      <c r="D58">
-        <v>0.46115474627131098</v>
-      </c>
-      <c r="E58">
-        <v>0.86908730085574504</v>
-      </c>
-      <c r="F58" t="s">
-        <v>58</v>
-      </c>
-      <c r="G58">
-        <v>5.3978859646563203E-2</v>
-      </c>
-      <c r="H58">
-        <v>9.2478956576392199E-2</v>
-      </c>
-      <c r="I58">
-        <v>6.2002574488300901E-3</v>
-      </c>
-      <c r="J58">
-        <v>1.1072149522965299E-2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>21</v>
-      </c>
-      <c r="B59">
-        <v>6.4268118657585999E-2</v>
-      </c>
-      <c r="C59" t="s">
-        <v>13</v>
-      </c>
-      <c r="D59">
-        <v>0.56084807165530504</v>
-      </c>
-      <c r="E59">
-        <v>0.87789789929218498</v>
-      </c>
-      <c r="F59" t="s">
-        <v>23</v>
-      </c>
-      <c r="G59">
-        <v>4.8681388014756299E-2</v>
-      </c>
-      <c r="H59">
-        <v>6.4397563665187105E-2</v>
-      </c>
-      <c r="I59">
-        <v>6.34219431382856E-2</v>
-      </c>
-      <c r="J59">
-        <v>7.4860585611632502E-2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>41</v>
-      </c>
-      <c r="B60">
-        <v>9.3487058211880594E-2</v>
-      </c>
-      <c r="C60" t="s">
-        <v>17</v>
-      </c>
-      <c r="D60">
-        <v>0.56370286165077199</v>
-      </c>
-      <c r="E60">
-        <v>0.87789789929218498</v>
-      </c>
-      <c r="F60" t="s">
-        <v>28</v>
-      </c>
-      <c r="G60">
-        <v>0.115047413674704</v>
-      </c>
-      <c r="H60">
-        <v>0.114382311766388</v>
-      </c>
-      <c r="I60">
-        <v>7.3416467665020399E-2</v>
-      </c>
-      <c r="J60">
-        <v>7.7454304713007197E-2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>21</v>
-      </c>
-      <c r="B61">
-        <v>6.4268118657585999E-2</v>
-      </c>
-      <c r="C61" t="s">
-        <v>13</v>
-      </c>
-      <c r="D61">
-        <v>0.56084807165530504</v>
-      </c>
-      <c r="E61">
-        <v>0.87789789929218498</v>
-      </c>
-      <c r="F61" t="s">
-        <v>46</v>
-      </c>
-      <c r="G61">
-        <v>4.8681388014756299E-2</v>
-      </c>
-      <c r="H61">
-        <v>6.4397563665187105E-2</v>
-      </c>
-      <c r="I61">
-        <v>6.34219431382856E-2</v>
-      </c>
-      <c r="J61">
-        <v>7.4860585611632502E-2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>41</v>
-      </c>
-      <c r="B62">
-        <v>9.3487058211880594E-2</v>
-      </c>
-      <c r="C62" t="s">
-        <v>17</v>
-      </c>
-      <c r="D62">
-        <v>0.56370286165077199</v>
-      </c>
-      <c r="E62">
-        <v>0.87789789929218498</v>
-      </c>
-      <c r="F62" t="s">
-        <v>28</v>
-      </c>
-      <c r="G62">
-        <v>0.115047413674704</v>
-      </c>
-      <c r="H62">
-        <v>0.114382311766388</v>
-      </c>
-      <c r="I62">
-        <v>7.3416467665020399E-2</v>
-      </c>
-      <c r="J62">
-        <v>7.7454304713007197E-2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>34</v>
-      </c>
-      <c r="B63">
-        <v>8.0624663390453002E-2</v>
-      </c>
-      <c r="C63" t="s">
-        <v>13</v>
-      </c>
-      <c r="D63">
-        <v>0.616646474192173</v>
-      </c>
-      <c r="E63">
-        <v>0.90125253920394599</v>
-      </c>
-      <c r="F63" t="s">
-        <v>31</v>
-      </c>
-      <c r="G63">
-        <v>7.1651829839831593E-2</v>
-      </c>
-      <c r="H63">
         <v>9.7066582765898704E-2</v>
       </c>
-      <c r="I63">
-        <v>6.34219431382856E-2</v>
-      </c>
-      <c r="J63">
-        <v>7.4860585611632502E-2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>38</v>
-      </c>
-      <c r="B64">
-        <v>4.9733476775834E-2</v>
-      </c>
-      <c r="C64" t="s">
-        <v>27</v>
-      </c>
-      <c r="D64">
-        <v>0.61261356188515403</v>
-      </c>
-      <c r="E64">
-        <v>0.90125253920394599</v>
-      </c>
-      <c r="F64" t="s">
-        <v>40</v>
-      </c>
-      <c r="G64">
-        <v>3.6595394020724099E-2</v>
-      </c>
-      <c r="H64">
-        <v>8.2836971356660502E-2</v>
-      </c>
-      <c r="I64">
-        <v>2.3784072688401901E-2</v>
-      </c>
-      <c r="J64">
-        <v>6.7271516328810996E-2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>34</v>
-      </c>
-      <c r="B65">
-        <v>8.0624663390453002E-2</v>
-      </c>
-      <c r="C65" t="s">
-        <v>13</v>
-      </c>
-      <c r="D65">
-        <v>0.616646474192173</v>
-      </c>
-      <c r="E65">
-        <v>0.90125253920394599</v>
-      </c>
-      <c r="F65" t="s">
-        <v>12</v>
-      </c>
-      <c r="G65">
-        <v>7.1651829839831593E-2</v>
-      </c>
-      <c r="H65">
-        <v>9.7066582765898704E-2</v>
-      </c>
-      <c r="I65">
-        <v>6.34219431382856E-2</v>
-      </c>
-      <c r="J65">
-        <v>7.4860585611632502E-2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>38</v>
-      </c>
-      <c r="B66">
-        <v>4.9733476775834E-2</v>
-      </c>
-      <c r="C66" t="s">
-        <v>27</v>
-      </c>
-      <c r="D66">
-        <v>0.61261356188515403</v>
-      </c>
-      <c r="E66">
-        <v>0.90125253920394599</v>
-      </c>
-      <c r="F66" t="s">
-        <v>52</v>
-      </c>
-      <c r="G66">
-        <v>3.6595394020724099E-2</v>
-      </c>
-      <c r="H66">
-        <v>8.2836971356660502E-2</v>
-      </c>
-      <c r="I66">
-        <v>2.3784072688401901E-2</v>
-      </c>
-      <c r="J66">
-        <v>6.7271516328810996E-2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>21</v>
-      </c>
-      <c r="B67">
-        <v>0.108230582137558</v>
-      </c>
-      <c r="C67" t="s">
-        <v>11</v>
-      </c>
-      <c r="D67">
-        <v>0.67546414650406195</v>
-      </c>
-      <c r="E67">
-        <v>0.90379005518149103</v>
-      </c>
-      <c r="F67" t="s">
-        <v>22</v>
-      </c>
-      <c r="G67">
-        <v>0.106934656648294</v>
-      </c>
-      <c r="H67">
-        <v>0.13452333759204799</v>
-      </c>
-      <c r="I67">
-        <v>7.1688554931273102E-2</v>
-      </c>
-      <c r="J67">
-        <v>9.8947093846803599E-2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>41</v>
-      </c>
-      <c r="B68">
-        <v>8.2616353803224393E-2</v>
-      </c>
-      <c r="C68" t="s">
-        <v>11</v>
-      </c>
-      <c r="D68">
-        <v>0.65722567622261296</v>
-      </c>
-      <c r="E68">
-        <v>0.90379005518149103</v>
-      </c>
-      <c r="F68" t="s">
-        <v>30</v>
-      </c>
-      <c r="G68">
-        <v>7.1688554931273102E-2</v>
-      </c>
-      <c r="H68">
-        <v>9.8947093846803599E-2</v>
-      </c>
-      <c r="I68">
-        <v>5.4607467039597402E-2</v>
-      </c>
-      <c r="J68">
-        <v>8.5151056841823697E-2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>41</v>
-      </c>
-      <c r="B69">
-        <v>4.5579171986094999E-2</v>
-      </c>
-      <c r="C69" t="s">
-        <v>20</v>
-      </c>
-      <c r="D69">
-        <v>0.65244321719153398</v>
-      </c>
-      <c r="E69">
-        <v>0.90379005518149103</v>
-      </c>
-      <c r="F69" t="s">
-        <v>28</v>
-      </c>
-      <c r="G69">
-        <v>5.7003741442615604E-3</v>
-      </c>
-      <c r="H69">
-        <v>1.0543667727444099E-2</v>
-      </c>
-      <c r="I69">
-        <v>4.6869436507310298E-2</v>
-      </c>
-      <c r="J69">
-        <v>8.1290615696617802E-2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>21</v>
-      </c>
-      <c r="B70">
-        <v>0.108230582137558</v>
-      </c>
-      <c r="C70" t="s">
-        <v>11</v>
-      </c>
-      <c r="D70">
-        <v>0.67546414650406195</v>
-      </c>
-      <c r="E70">
-        <v>0.90379005518149103</v>
-      </c>
-      <c r="F70" t="s">
-        <v>28</v>
-      </c>
-      <c r="G70">
-        <v>0.106934656648294</v>
-      </c>
-      <c r="H70">
-        <v>0.13452333759204799</v>
-      </c>
-      <c r="I70">
-        <v>7.1688554931273102E-2</v>
-      </c>
-      <c r="J70">
-        <v>9.8947093846803599E-2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>41</v>
-      </c>
-      <c r="B71">
-        <v>8.2616353803224393E-2</v>
-      </c>
-      <c r="C71" t="s">
-        <v>11</v>
-      </c>
-      <c r="D71">
-        <v>0.65722567622261296</v>
-      </c>
-      <c r="E71">
-        <v>0.90379005518149103</v>
-      </c>
-      <c r="F71" t="s">
-        <v>53</v>
-      </c>
-      <c r="G71">
-        <v>7.1688554931273102E-2</v>
-      </c>
-      <c r="H71">
-        <v>9.8947093846803599E-2</v>
-      </c>
-      <c r="I71">
-        <v>5.4607467039597402E-2</v>
-      </c>
-      <c r="J71">
-        <v>8.5151056841823697E-2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>41</v>
-      </c>
-      <c r="B72">
-        <v>4.5579171986094999E-2</v>
-      </c>
-      <c r="C72" t="s">
-        <v>20</v>
-      </c>
-      <c r="D72">
-        <v>0.65244321719153398</v>
-      </c>
-      <c r="E72">
-        <v>0.90379005518149103</v>
-      </c>
-      <c r="F72" t="s">
-        <v>25</v>
-      </c>
-      <c r="G72">
-        <v>5.7003741442615604E-3</v>
-      </c>
-      <c r="H72">
-        <v>1.0543667727444099E-2</v>
-      </c>
-      <c r="I72">
-        <v>4.6869436507310298E-2</v>
-      </c>
-      <c r="J72">
-        <v>8.1290615696617802E-2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>34</v>
-      </c>
-      <c r="B73">
-        <v>5.4366240078609997E-2</v>
-      </c>
-      <c r="C73" t="s">
-        <v>27</v>
-      </c>
-      <c r="D73">
-        <v>0.69569952860894901</v>
-      </c>
-      <c r="E73">
-        <v>0.90536240024452197</v>
-      </c>
-      <c r="F73" t="s">
-        <v>28</v>
-      </c>
-      <c r="G73">
-        <v>3.6595394020724099E-2</v>
-      </c>
-      <c r="H73">
-        <v>8.2836971356660502E-2</v>
-      </c>
-      <c r="I73">
-        <v>3.5115925203271801E-2</v>
-      </c>
-      <c r="J73">
-        <v>6.6184108429413094E-2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>34</v>
-      </c>
-      <c r="B74">
-        <v>5.4366240078609997E-2</v>
-      </c>
-      <c r="C74" t="s">
-        <v>27</v>
-      </c>
-      <c r="D74">
-        <v>0.69569952860894901</v>
-      </c>
-      <c r="E74">
-        <v>0.90536240024452197</v>
-      </c>
-      <c r="F74" t="s">
-        <v>36</v>
-      </c>
-      <c r="G74">
-        <v>3.6595394020724099E-2</v>
-      </c>
-      <c r="H74">
-        <v>8.2836971356660502E-2</v>
-      </c>
-      <c r="I74">
-        <v>3.5115925203271801E-2</v>
-      </c>
-      <c r="J74">
-        <v>6.6184108429413094E-2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>34</v>
-      </c>
-      <c r="B75">
-        <v>9.0412959954150496E-2</v>
-      </c>
-      <c r="C75" t="s">
-        <v>17</v>
-      </c>
-      <c r="D75">
-        <v>0.75727774962362604</v>
-      </c>
-      <c r="E75">
-        <v>0.953491549415873</v>
-      </c>
-      <c r="F75" t="s">
-        <v>35</v>
-      </c>
-      <c r="G75">
-        <v>8.3857900411084596E-2</v>
-      </c>
-      <c r="H75">
-        <v>6.3598775104669297E-2</v>
-      </c>
-      <c r="I75">
-        <v>0.115047413674704</v>
-      </c>
-      <c r="J75">
-        <v>0.114382311766388</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>41</v>
-      </c>
-      <c r="B76">
-        <v>4.8355056690624003E-2</v>
-      </c>
-      <c r="C76" t="s">
-        <v>24</v>
-      </c>
-      <c r="D76">
-        <v>0.77282999268444397</v>
-      </c>
-      <c r="E76">
-        <v>0.953491549415873</v>
-      </c>
-      <c r="F76" t="s">
-        <v>23</v>
-      </c>
-      <c r="G76">
-        <v>5.3212368356205797E-2</v>
-      </c>
-      <c r="H76">
-        <v>4.20871435375186E-2</v>
-      </c>
-      <c r="I76">
-        <v>5.7467764818751599E-2</v>
-      </c>
-      <c r="J76">
-        <v>5.22536434700063E-2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>34</v>
-      </c>
-      <c r="B77">
-        <v>9.0412959954150496E-2</v>
-      </c>
-      <c r="C77" t="s">
-        <v>17</v>
-      </c>
-      <c r="D77">
-        <v>0.75727774962362604</v>
-      </c>
-      <c r="E77">
-        <v>0.953491549415873</v>
-      </c>
-      <c r="F77" t="s">
-        <v>25</v>
-      </c>
-      <c r="G77">
-        <v>8.3857900411084596E-2</v>
-      </c>
-      <c r="H77">
-        <v>6.3598775104669297E-2</v>
-      </c>
-      <c r="I77">
-        <v>0.115047413674704</v>
-      </c>
-      <c r="J77">
-        <v>0.114382311766388</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>41</v>
-      </c>
-      <c r="B78">
-        <v>4.8355056690624003E-2</v>
-      </c>
-      <c r="C78" t="s">
-        <v>24</v>
-      </c>
-      <c r="D78">
-        <v>0.77282999268444397</v>
-      </c>
-      <c r="E78">
-        <v>0.953491549415873</v>
-      </c>
-      <c r="F78" t="s">
-        <v>12</v>
-      </c>
-      <c r="G78">
-        <v>5.3212368356205797E-2</v>
-      </c>
-      <c r="H78">
-        <v>4.20871435375186E-2</v>
-      </c>
-      <c r="I78">
-        <v>5.7467764818751599E-2</v>
-      </c>
-      <c r="J78">
-        <v>5.22536434700063E-2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>21</v>
-      </c>
-      <c r="B79">
-        <v>4.0505867598194002E-2</v>
-      </c>
-      <c r="C79" t="s">
-        <v>18</v>
-      </c>
-      <c r="D79">
-        <v>0.834114952902964</v>
-      </c>
-      <c r="E79">
-        <v>0.95564428000381396</v>
-      </c>
-      <c r="F79" t="s">
-        <v>26</v>
-      </c>
-      <c r="G79">
-        <v>4.5103043349720498E-2</v>
-      </c>
-      <c r="H79">
-        <v>4.3442502909295598E-2</v>
-      </c>
-      <c r="I79">
-        <v>4.5476616369853097E-2</v>
-      </c>
-      <c r="J79">
-        <v>4.08594230801127E-2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>38</v>
-      </c>
-      <c r="B80">
-        <v>8.1541570247348705E-2</v>
-      </c>
-      <c r="C80" t="s">
-        <v>13</v>
-      </c>
-      <c r="D80">
-        <v>0.83493131831912104</v>
-      </c>
-      <c r="E80">
-        <v>0.95564428000381396</v>
-      </c>
-      <c r="F80" t="s">
-        <v>12</v>
-      </c>
-      <c r="G80">
-        <v>7.1651829839831593E-2</v>
-      </c>
-      <c r="H80">
-        <v>9.7066582765898704E-2</v>
-      </c>
-      <c r="I80">
-        <v>6.5001180401373704E-2</v>
-      </c>
-      <c r="J80">
-        <v>7.0604239493769594E-2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>38</v>
-      </c>
-      <c r="B81">
-        <v>7.1566667252703997E-2</v>
-      </c>
-      <c r="C81" t="s">
-        <v>15</v>
-      </c>
-      <c r="D81">
-        <v>0.83493131831912104</v>
-      </c>
-      <c r="E81">
-        <v>0.95564428000381396</v>
-      </c>
-      <c r="F81" t="s">
-        <v>39</v>
-      </c>
-      <c r="G81">
-        <v>5.9605047542589003E-2</v>
-      </c>
-      <c r="H81">
-        <v>7.4598270095143707E-2</v>
-      </c>
-      <c r="I81">
-        <v>7.0090647122412905E-2</v>
-      </c>
-      <c r="J81">
-        <v>7.5501787595181696E-2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>21</v>
-      </c>
-      <c r="B82">
-        <v>4.0505867598194002E-2</v>
-      </c>
-      <c r="C82" t="s">
-        <v>18</v>
-      </c>
-      <c r="D82">
-        <v>0.834114952902964</v>
-      </c>
-      <c r="E82">
-        <v>0.95564428000381396</v>
-      </c>
-      <c r="F82" t="s">
-        <v>43</v>
-      </c>
-      <c r="G82">
-        <v>4.5103043349720498E-2</v>
-      </c>
-      <c r="H82">
-        <v>4.3442502909295598E-2</v>
-      </c>
-      <c r="I82">
-        <v>4.5476616369853097E-2</v>
-      </c>
-      <c r="J82">
-        <v>4.08594230801127E-2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
-        <v>38</v>
-      </c>
-      <c r="B83">
-        <v>8.1541570247348705E-2</v>
-      </c>
-      <c r="C83" t="s">
-        <v>13</v>
-      </c>
-      <c r="D83">
-        <v>0.83493131831912104</v>
-      </c>
-      <c r="E83">
-        <v>0.95564428000381396</v>
-      </c>
-      <c r="F83" t="s">
-        <v>31</v>
-      </c>
-      <c r="G83">
-        <v>7.1651829839831593E-2</v>
-      </c>
-      <c r="H83">
-        <v>9.7066582765898704E-2</v>
-      </c>
-      <c r="I83">
-        <v>6.5001180401373704E-2</v>
-      </c>
-      <c r="J83">
-        <v>7.0604239493769594E-2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>38</v>
-      </c>
-      <c r="B84">
-        <v>7.1566667252703997E-2</v>
-      </c>
-      <c r="C84" t="s">
-        <v>15</v>
-      </c>
-      <c r="D84">
-        <v>0.83493131831912104</v>
-      </c>
-      <c r="E84">
-        <v>0.95564428000381396</v>
-      </c>
-      <c r="F84" t="s">
-        <v>51</v>
-      </c>
-      <c r="G84">
-        <v>5.9605047542589003E-2</v>
-      </c>
-      <c r="H84">
-        <v>7.4598270095143707E-2</v>
-      </c>
-      <c r="I84">
-        <v>7.0090647122412905E-2</v>
-      </c>
-      <c r="J84">
-        <v>7.5501787595181696E-2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
-        <v>10</v>
-      </c>
-      <c r="B85">
-        <v>6.1189514682513997E-2</v>
-      </c>
-      <c r="C85" t="s">
-        <v>15</v>
-      </c>
-      <c r="D85">
-        <v>0.894641927640353</v>
-      </c>
-      <c r="E85">
-        <v>0.96662461440173197</v>
-      </c>
-      <c r="F85" t="s">
-        <v>16</v>
-      </c>
-      <c r="G85">
-        <v>4.9083854311632098E-2</v>
-      </c>
-      <c r="H85">
-        <v>5.4261152343214603E-2</v>
-      </c>
-      <c r="I85">
-        <v>5.9605047542589003E-2</v>
-      </c>
-      <c r="J85">
-        <v>7.4598270095143707E-2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
-        <v>21</v>
-      </c>
-      <c r="B86">
-        <v>3.6844819209294E-2</v>
-      </c>
-      <c r="C86" t="s">
-        <v>27</v>
-      </c>
-      <c r="D86">
-        <v>0.92479827248512303</v>
-      </c>
-      <c r="E86">
-        <v>0.96662461440173197</v>
-      </c>
-      <c r="F86" t="s">
-        <v>28</v>
-      </c>
-      <c r="G86">
-        <v>1.2543307184994801E-2</v>
-      </c>
-      <c r="H86">
-        <v>2.6595289974355799E-2</v>
-      </c>
-      <c r="I86">
-        <v>3.5115925203271801E-2</v>
-      </c>
-      <c r="J86">
-        <v>6.6184108429413094E-2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
-        <v>29</v>
-      </c>
-      <c r="B87">
-        <v>6.6834201039650001E-2</v>
-      </c>
-      <c r="C87" t="s">
-        <v>13</v>
-      </c>
-      <c r="D87">
-        <v>0.92592463063744801</v>
-      </c>
-      <c r="E87">
-        <v>0.96662461440173197</v>
-      </c>
-      <c r="F87" t="s">
-        <v>31</v>
-      </c>
-      <c r="G87">
-        <v>4.8681388014756299E-2</v>
-      </c>
-      <c r="H87">
-        <v>6.4397563665187105E-2</v>
-      </c>
-      <c r="I87">
-        <v>6.5001180401373704E-2</v>
-      </c>
-      <c r="J87">
-        <v>7.0604239493769594E-2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
-        <v>29</v>
-      </c>
-      <c r="B88">
-        <v>6.0740612217525997E-2</v>
-      </c>
-      <c r="C88" t="s">
-        <v>20</v>
-      </c>
-      <c r="D88">
-        <v>0.91950088846611999</v>
-      </c>
-      <c r="E88">
-        <v>0.96662461440173197</v>
-      </c>
-      <c r="F88" t="s">
-        <v>33</v>
-      </c>
-      <c r="G88">
-        <v>3.7591261678129401E-2</v>
-      </c>
-      <c r="H88">
-        <v>6.8701062520387907E-2</v>
-      </c>
-      <c r="I88">
-        <v>4.6869436507310298E-2</v>
-      </c>
-      <c r="J88">
-        <v>8.1290615696617802E-2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
-        <v>10</v>
-      </c>
-      <c r="B89">
-        <v>6.1189514682513997E-2</v>
-      </c>
-      <c r="C89" t="s">
-        <v>15</v>
-      </c>
-      <c r="D89">
-        <v>0.894641927640353</v>
-      </c>
-      <c r="E89">
-        <v>0.96662461440173197</v>
-      </c>
-      <c r="F89" t="s">
-        <v>12</v>
-      </c>
-      <c r="G89">
-        <v>4.9083854311632098E-2</v>
-      </c>
-      <c r="H89">
-        <v>5.4261152343214603E-2</v>
-      </c>
-      <c r="I89">
-        <v>5.9605047542589003E-2</v>
-      </c>
-      <c r="J89">
-        <v>7.4598270095143707E-2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
-        <v>21</v>
-      </c>
-      <c r="B90">
-        <v>3.6844819209294E-2</v>
-      </c>
-      <c r="C90" t="s">
-        <v>27</v>
-      </c>
-      <c r="D90">
-        <v>0.92479827248512303</v>
-      </c>
-      <c r="E90">
-        <v>0.96662461440173197</v>
-      </c>
-      <c r="F90" t="s">
-        <v>47</v>
-      </c>
-      <c r="G90">
-        <v>1.2543307184994801E-2</v>
-      </c>
-      <c r="H90">
-        <v>2.6595289974355799E-2</v>
-      </c>
-      <c r="I90">
-        <v>3.5115925203271801E-2</v>
-      </c>
-      <c r="J90">
-        <v>6.6184108429413094E-2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
-        <v>29</v>
-      </c>
-      <c r="B91">
-        <v>6.6834201039650001E-2</v>
-      </c>
-      <c r="C91" t="s">
-        <v>13</v>
-      </c>
-      <c r="D91">
-        <v>0.92592463063744801</v>
-      </c>
-      <c r="E91">
-        <v>0.96662461440173197</v>
-      </c>
-      <c r="F91" t="s">
-        <v>39</v>
-      </c>
-      <c r="G91">
-        <v>4.8681388014756299E-2</v>
-      </c>
-      <c r="H91">
-        <v>6.4397563665187105E-2</v>
-      </c>
-      <c r="I91">
-        <v>6.5001180401373704E-2</v>
-      </c>
-      <c r="J91">
-        <v>7.0604239493769594E-2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
-        <v>29</v>
-      </c>
-      <c r="B92">
-        <v>6.0740612217525997E-2</v>
-      </c>
-      <c r="C92" t="s">
-        <v>20</v>
-      </c>
-      <c r="D92">
-        <v>0.91950088846611999</v>
-      </c>
-      <c r="E92">
-        <v>0.96662461440173197</v>
-      </c>
-      <c r="F92" t="s">
-        <v>49</v>
-      </c>
-      <c r="G92">
-        <v>3.7591261678129401E-2</v>
-      </c>
-      <c r="H92">
-        <v>6.8701062520387907E-2</v>
-      </c>
-      <c r="I92">
-        <v>4.6869436507310298E-2</v>
-      </c>
-      <c r="J92">
-        <v>8.1290615696617802E-2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
-        <v>29</v>
-      </c>
-      <c r="B93">
-        <v>5.9493823877641003E-2</v>
-      </c>
-      <c r="C93" t="s">
-        <v>19</v>
-      </c>
-      <c r="D93">
-        <v>0.96107661110798004</v>
-      </c>
-      <c r="E93">
-        <v>0.98174492532535595</v>
-      </c>
-      <c r="F93" t="s">
-        <v>25</v>
-      </c>
-      <c r="G93">
-        <v>5.8235949065372397E-2</v>
-      </c>
-      <c r="H93">
-        <v>0.10255892833892</v>
-      </c>
-      <c r="I93">
-        <v>1.15136478994451E-2</v>
-      </c>
-      <c r="J93">
-        <v>1.64114623730411E-2</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
-        <v>29</v>
-      </c>
-      <c r="B94">
-        <v>5.9493823877641003E-2</v>
-      </c>
-      <c r="C94" t="s">
-        <v>19</v>
-      </c>
-      <c r="D94">
-        <v>0.96107661110798004</v>
-      </c>
-      <c r="E94">
-        <v>0.98174492532535595</v>
-      </c>
-      <c r="F94" t="s">
-        <v>25</v>
-      </c>
-      <c r="G94">
-        <v>5.8235949065372397E-2</v>
-      </c>
-      <c r="H94">
-        <v>0.10255892833892</v>
-      </c>
-      <c r="I94">
-        <v>1.15136478994451E-2</v>
-      </c>
-      <c r="J94">
-        <v>1.64114623730411E-2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
-        <v>10</v>
-      </c>
-      <c r="B95">
-        <v>7.5614989946633002E-2</v>
-      </c>
-      <c r="C95" t="s">
-        <v>13</v>
-      </c>
-      <c r="D95">
-        <v>1</v>
-      </c>
-      <c r="E95">
-        <v>1</v>
-      </c>
-      <c r="F95" t="s">
-        <v>14</v>
-      </c>
-      <c r="G95">
-        <v>4.8681388014756299E-2</v>
-      </c>
-      <c r="H95">
-        <v>6.4397563665187105E-2</v>
-      </c>
-      <c r="I95">
-        <v>7.1651829839831593E-2</v>
-      </c>
-      <c r="J95">
-        <v>9.7066582765898704E-2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
-        <v>10</v>
-      </c>
-      <c r="B96">
-        <v>7.5614989946633002E-2</v>
-      </c>
-      <c r="C96" t="s">
-        <v>13</v>
-      </c>
-      <c r="D96">
-        <v>1</v>
-      </c>
-      <c r="E96">
-        <v>1</v>
-      </c>
-      <c r="F96" t="s">
-        <v>35</v>
-      </c>
-      <c r="G96">
-        <v>4.8681388014756299E-2</v>
-      </c>
-      <c r="H96">
-        <v>6.4397563665187105E-2</v>
-      </c>
-      <c r="I96">
-        <v>7.1651829839831593E-2</v>
-      </c>
-      <c r="J96">
-        <v>9.7066582765898704E-2</v>
-      </c>
     </row>
   </sheetData>
-  <sortState ref="A2:J96">
+  <sortState ref="A2:J52">
     <sortCondition ref="E1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
